--- a/metrics/MAPE/upto time/Enfermedad renal terminal (UPTO).xlsx
+++ b/metrics/MAPE/upto time/Enfermedad renal terminal (UPTO).xlsx
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>789667843852.5001</v>
+        <v>745844114773.5</v>
       </c>
       <c r="C3" t="n">
-        <v>750888417298.2893</v>
+        <v>843721088186.5635</v>
       </c>
       <c r="D3" t="n">
-        <v>772781763554.4253</v>
+        <v>858645309276.2534</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1837383012307.84</v>
+        <v>1863183608103.703</v>
       </c>
       <c r="C4" t="n">
-        <v>1844458604048.841</v>
+        <v>1846376648506.975</v>
       </c>
       <c r="D4" t="n">
-        <v>1851787027554.654</v>
+        <v>1841377567385.408</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4100017065356.604</v>
+        <v>26748233316816.96</v>
       </c>
       <c r="C5" t="n">
-        <v>34531697644051.08</v>
+        <v>827823200211.6884</v>
       </c>
       <c r="D5" t="n">
-        <v>37219341340978.86</v>
+        <v>22654939228352.63</v>
       </c>
     </row>
   </sheetData>
